--- a/medicine/Enfance/Joy_Kogawa/Joy_Kogawa.xlsx
+++ b/medicine/Enfance/Joy_Kogawa/Joy_Kogawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joy Kogawa (née Joy Nozomi Nakayama à Vancouver le 6 juin 1935) est une poétesse et romancière canadienne de descendance japonaise. Son ouvrage le plus connu est le roman semi-autobiographique Obasan (en) (1981).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la Seconde Guerre mondiale, elle et sa famille sont internés dans un camp pour Japonais-canadiens à Slocan. Depuis lors, elle travaille pour éduquer les Canadiens sur l'histoire de ces camps et est active dans la lutte obtenir réparation de la part du gouvernement canadien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la Seconde Guerre mondiale, elle et sa famille sont internés dans un camp pour Japonais-canadiens à Slocan. Depuis lors, elle travaille pour éduquer les Canadiens sur l'histoire de ces camps et est active dans la lutte obtenir réparation de la part du gouvernement canadien.
 </t>
         </is>
       </c>
@@ -544,24 +558,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
-The Splintered Moon (1967)
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Splintered Moon (1967)
 A Choice of Dreams (1974)
 Jericho Road (1977)
 Six Poems (1980)
 What Do I Remember of the Evacuation? (1985)
 Woman in the Woods (1985)
 A Song of Lilith (2000)
-A Garden of Anchors: Selected Poems (2003)
-Romans
-Obasan (1981) - Prix Books in Canada First Novel Publié en français sous le titre Obasan, traduit par Dorothy Howard, Paris, LGF, coll. « Le Livre de poche. Biblio » no 35381, 2019  (ISBN 978-2-253-25966-4)
-Itsuka (1992), nouvelle version sous le titre Emily Kato en 2005
-The Rain Ascends (1995), version révisée en 2003
-Ouvrage de littérature d'enfance et de jeunesse
-Naomi's Road (1986)
-Naomi's Tree (2009)
-Autre publication
-Gently to Nagasaki  (2016)</t>
+A Garden of Anchors: Selected Poems (2003)</t>
         </is>
       </c>
     </row>
@@ -586,10 +596,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Obasan (1981) - Prix Books in Canada First Novel Publié en français sous le titre Obasan, traduit par Dorothy Howard, Paris, LGF, coll. « Le Livre de poche. Biblio » no 35381, 2019  (ISBN 978-2-253-25966-4)
+Itsuka (1992), nouvelle version sous le titre Emily Kato en 2005
+The Rain Ascends (1995), version révisée en 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joy_Kogawa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joy_Kogawa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Naomi's Road (1986)
+Naomi's Tree (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joy_Kogawa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joy_Kogawa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gently to Nagasaki  (2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joy_Kogawa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joy_Kogawa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ordre du Canada, 1986
 Ordre de la Colombie-Britannique, 2006
